--- a/biology/Médecine/Hôpital_de_Magenta/Hôpital_de_Magenta.xlsx
+++ b/biology/Médecine/Hôpital_de_Magenta/Hôpital_de_Magenta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Magenta</t>
+          <t>Hôpital_de_Magenta</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Centre Hospitalier Territorial (CHT) de Magenta, généralement appelé Clinique de Magenta, était le deuxième établissement hospitalier de par sa taille de Nouméa et de Nouvelle-Calédonie, derrière l'hôpital Gaston-Bourret. Il tire son nom du quartier où il se situe à Nouméa, à 3 km du centre ville. Il constituait le pôle "mère - enfant" du CHT en accueillant les services de pédiatrie, gynécologie, obstétrique et la maternité. Il ferme définitivement ses portes le 23 décembre 2016 lors du déménagement[1] de celui-ci et de l'Hôpital Gaston-Bourret vers le Médipôle de Koutio.
+Le Centre Hospitalier Territorial (CHT) de Magenta, généralement appelé Clinique de Magenta, était le deuxième établissement hospitalier de par sa taille de Nouméa et de Nouvelle-Calédonie, derrière l'hôpital Gaston-Bourret. Il tire son nom du quartier où il se situe à Nouméa, à 3 km du centre ville. Il constituait le pôle "mère - enfant" du CHT en accueillant les services de pédiatrie, gynécologie, obstétrique et la maternité. Il ferme définitivement ses portes le 23 décembre 2016 lors du déménagement de celui-ci et de l'Hôpital Gaston-Bourret vers le Médipôle de Koutio.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Magenta</t>
+          <t>Hôpital_de_Magenta</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1976: création de la clinique privée de Magenta.
 1er juillet 1983: rachat de la clinique de Magenta par le CHT, qui accueille les services liés à la mère et à l'enfant qui jusque-là se trouvaient au site principal de Gaston Bourret. Sa capacité est alors de 123 lits.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Magenta</t>
+          <t>Hôpital_de_Magenta</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Chiffres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Capacité: 160 lits, 14 places d'hospitalisation de jour et 13 postes d'hémodialyse.
 Nombre de naissances: plus de 2000 bébés y naissent chaque année.</t>
